--- a/DataCleaning.xlsx
+++ b/DataCleaning.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjcoc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjcoc\Projects\DSR\DataCleaningTutorial\DataCleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359B401-8FE9-4BC0-9B61-07E2DEC0DE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9419EFEE-FD7D-427B-ABF0-059526228930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7D8FF7DF-5346-418C-AC6C-1F2ACA817DB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Salaries" sheetId="1" r:id="rId1"/>
+    <sheet name="Salaries no CSuite" sheetId="2" r:id="rId1"/>
+    <sheet name="Salaries" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="126">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -1259,10 +1260,2049 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E95D7D-F452-49CF-B04B-E5C676173C93}">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>73654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>75795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>50860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>118158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>89802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>91575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>71964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>71284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>62118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>56265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>76850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>89910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>74426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>91962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>84423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>78020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>61363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>67495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>86023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>58322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>51685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>60769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>66967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>73333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>82433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>65311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>117819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>56420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>77568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>99769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>78693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>66396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>79419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>97480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>48666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>105658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>78942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <v>94233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>98431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>62747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>80189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>99118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>115773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>81899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>94118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>81267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <v>111551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>57912</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50">
+        <v>71394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>53556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52">
+        <v>73890</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>78838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>67464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>64502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>101777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>50627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58">
+        <v>58792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>88433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>50233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>61016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>93897</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>72612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>63425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>75939</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>92619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>91870</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>83483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>66054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>55787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>67132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>87159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>72206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74">
+        <v>58226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75">
+        <v>74541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>115920</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>66531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>51585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79">
+        <v>73943</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>73939</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81">
+        <v>89457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>81021</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>51653</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
+        <v>60805</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>83417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86">
+        <v>90227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87">
+        <v>89692</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88">
+        <v>52990</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>56873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90">
+        <v>55675</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>70161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>74297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93">
+        <v>106557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>113763</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>89487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>91534</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97">
+        <v>109127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98">
+        <v>47629</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99">
+        <v>98374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>95851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101">
+        <v>61016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F5E808-000E-4134-B880-9E006F2B8B77}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/DataCleaning.xlsx
+++ b/DataCleaning.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjcoc\Projects\DSR\DataCleaningTutorial\DataCleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9419EFEE-FD7D-427B-ABF0-059526228930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC153F1B-875A-46C9-BD6F-0A8789F04984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7D8FF7DF-5346-418C-AC6C-1F2ACA817DB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Salaries no CSuite" sheetId="2" r:id="rId1"/>
     <sheet name="Salaries" sheetId="1" r:id="rId2"/>
+    <sheet name="Histogram" sheetId="3" r:id="rId3"/>
+    <sheet name="Scatter (Outlier)" sheetId="4" r:id="rId4"/>
+    <sheet name="Scatter (No Outlier)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="128">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -399,13 +402,19 @@
   </si>
   <si>
     <t>CTO</t>
+  </si>
+  <si>
+    <t>ExamScore</t>
+  </si>
+  <si>
+    <t>StudyHours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +548,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="33">
@@ -722,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -837,6 +851,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -882,8 +911,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5389,4 +5421,4273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80EE437-1749-47A4-9E42-4F860B8A12C1}">
+  <dimension ref="A1:A201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9161E32-F9C5-4D51-AE53-A0D1E2B55239}">
+  <dimension ref="A1:B201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4.26</v>
+      </c>
+      <c r="B2">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="B3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7.2</v>
+      </c>
+      <c r="B4">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6.31</v>
+      </c>
+      <c r="B5">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.28</v>
+      </c>
+      <c r="B6">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.77</v>
+      </c>
+      <c r="B7">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.95</v>
+      </c>
+      <c r="B8">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.52</v>
+      </c>
+      <c r="B9">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5.56</v>
+      </c>
+      <c r="B10">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4.8</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6.82</v>
+      </c>
+      <c r="B12">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5.63</v>
+      </c>
+      <c r="B13">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6.57</v>
+      </c>
+      <c r="B14">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4.07</v>
+      </c>
+      <c r="B15">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3.11</v>
+      </c>
+      <c r="B16">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4.18</v>
+      </c>
+      <c r="B17">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4.97</v>
+      </c>
+      <c r="B18">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5.76</v>
+      </c>
+      <c r="B19">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9.52</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4.92</v>
+      </c>
+      <c r="B21">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.09</v>
+      </c>
+      <c r="B22">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B23">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4.07</v>
+      </c>
+      <c r="B24">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5.96</v>
+      </c>
+      <c r="B25">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1.92</v>
+      </c>
+      <c r="B26">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5.13</v>
+      </c>
+      <c r="B27">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5.31</v>
+      </c>
+      <c r="B28">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5.46</v>
+      </c>
+      <c r="B29">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3.81</v>
+      </c>
+      <c r="B30">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="B31">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2.15</v>
+      </c>
+      <c r="B32">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4.01</v>
+      </c>
+      <c r="B33">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3.91</v>
+      </c>
+      <c r="B34">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5.83</v>
+      </c>
+      <c r="B35">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2.69</v>
+      </c>
+      <c r="B36">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6.56</v>
+      </c>
+      <c r="B37">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7.99</v>
+      </c>
+      <c r="B38">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.86</v>
+      </c>
+      <c r="B39">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5.85</v>
+      </c>
+      <c r="B40">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6.35</v>
+      </c>
+      <c r="B41">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3.73</v>
+      </c>
+      <c r="B42">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4.21</v>
+      </c>
+      <c r="B43">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="B44">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4.38</v>
+      </c>
+      <c r="B46">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1.65</v>
+      </c>
+      <c r="B47">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7.3</v>
+      </c>
+      <c r="B48">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>7.16</v>
+      </c>
+      <c r="B49">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3.37</v>
+      </c>
+      <c r="B50">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B51">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6.04</v>
+      </c>
+      <c r="B52">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3.85</v>
+      </c>
+      <c r="B53">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5.28</v>
+      </c>
+      <c r="B54">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="B55">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6.38</v>
+      </c>
+      <c r="B56">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>6.39</v>
+      </c>
+      <c r="B57">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3.55</v>
+      </c>
+      <c r="B58">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2.23</v>
+      </c>
+      <c r="B59">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1.83</v>
+      </c>
+      <c r="B60">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6.22</v>
+      </c>
+      <c r="B61">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2.62</v>
+      </c>
+      <c r="B62">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3.99</v>
+      </c>
+      <c r="B63">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3.81</v>
+      </c>
+      <c r="B64">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="B65">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B66">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5.38</v>
+      </c>
+      <c r="B67">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6.05</v>
+      </c>
+      <c r="B68">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>5.18</v>
+      </c>
+      <c r="B69">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4.38</v>
+      </c>
+      <c r="B70">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5.19</v>
+      </c>
+      <c r="B71">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5.8</v>
+      </c>
+      <c r="B72">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8.91</v>
+      </c>
+      <c r="B74">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5.78</v>
+      </c>
+      <c r="B75">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3.7</v>
+      </c>
+      <c r="B76">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4.22</v>
+      </c>
+      <c r="B77">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5.99</v>
+      </c>
+      <c r="B78">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="B79">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.94</v>
+      </c>
+      <c r="B80">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="B81">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4.78</v>
+      </c>
+      <c r="B82">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>7.04</v>
+      </c>
+      <c r="B83">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>3.62</v>
+      </c>
+      <c r="B84">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>8.07</v>
+      </c>
+      <c r="B85">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5.57</v>
+      </c>
+      <c r="B86">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>6.22</v>
+      </c>
+      <c r="B87">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2.91</v>
+      </c>
+      <c r="B88">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>7.42</v>
+      </c>
+      <c r="B89">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>6.38</v>
+      </c>
+      <c r="B90">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>7.6</v>
+      </c>
+      <c r="B91">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3.74</v>
+      </c>
+      <c r="B92">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4.04</v>
+      </c>
+      <c r="B93">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>9.61</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2.88</v>
+      </c>
+      <c r="B95">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="B96">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7.27</v>
+      </c>
+      <c r="B97">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5.2</v>
+      </c>
+      <c r="B98">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>6.17</v>
+      </c>
+      <c r="B99">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>4.2</v>
+      </c>
+      <c r="B100">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>5.74</v>
+      </c>
+      <c r="B101">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2.39</v>
+      </c>
+      <c r="B102">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>8.32</v>
+      </c>
+      <c r="B103">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>4.76</v>
+      </c>
+      <c r="B104">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>3.64</v>
+      </c>
+      <c r="B105">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>6.33</v>
+      </c>
+      <c r="B106">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>4.08</v>
+      </c>
+      <c r="B107">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2.33</v>
+      </c>
+      <c r="B108">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2.31</v>
+      </c>
+      <c r="B109">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>6.39</v>
+      </c>
+      <c r="B110">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>4.68</v>
+      </c>
+      <c r="B111">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="B112">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>7.16</v>
+      </c>
+      <c r="B113">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2.75</v>
+      </c>
+      <c r="B114">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3.54</v>
+      </c>
+      <c r="B115">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="B116">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>5.19</v>
+      </c>
+      <c r="B117">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>4.92</v>
+      </c>
+      <c r="B118">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>4.43</v>
+      </c>
+      <c r="B119">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>4.88</v>
+      </c>
+      <c r="B120">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>4.79</v>
+      </c>
+      <c r="B121">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>3.56</v>
+      </c>
+      <c r="B122">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>3.37</v>
+      </c>
+      <c r="B123">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>5.55</v>
+      </c>
+      <c r="B124">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>3.22</v>
+      </c>
+      <c r="B125">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2.69</v>
+      </c>
+      <c r="B126">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>4.38</v>
+      </c>
+      <c r="B127">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>4.68</v>
+      </c>
+      <c r="B128">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>9.51</v>
+      </c>
+      <c r="B129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>3.59</v>
+      </c>
+      <c r="B130">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>6.89</v>
+      </c>
+      <c r="B131">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>6.49</v>
+      </c>
+      <c r="B132">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2.62</v>
+      </c>
+      <c r="B133">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>6.55</v>
+      </c>
+      <c r="B134">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2.63</v>
+      </c>
+      <c r="B135">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>6.21</v>
+      </c>
+      <c r="B137">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1.49</v>
+      </c>
+      <c r="B138">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>5.9</v>
+      </c>
+      <c r="B139">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>3.63</v>
+      </c>
+      <c r="B140">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>8.32</v>
+      </c>
+      <c r="B141">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>7.14</v>
+      </c>
+      <c r="B142">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>4.09</v>
+      </c>
+      <c r="B143">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>3.62</v>
+      </c>
+      <c r="B144">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2.57</v>
+      </c>
+      <c r="B145">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>4.12</v>
+      </c>
+      <c r="B146">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="B147">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B148">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>5.31</v>
+      </c>
+      <c r="B149">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>6.16</v>
+      </c>
+      <c r="B150">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>5.7</v>
+      </c>
+      <c r="B151">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>3.47</v>
+      </c>
+      <c r="B152">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2.12</v>
+      </c>
+      <c r="B153">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>7.73</v>
+      </c>
+      <c r="B154">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>3.62</v>
+      </c>
+      <c r="B155">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>3.7</v>
+      </c>
+      <c r="B156">
+        <v>2002.24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3.96</v>
+      </c>
+      <c r="B157">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1.31</v>
+      </c>
+      <c r="B158">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>4.04</v>
+      </c>
+      <c r="B159">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>4.04</v>
+      </c>
+      <c r="B160">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>6.24</v>
+      </c>
+      <c r="B161">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6.4</v>
+      </c>
+      <c r="B162">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>5.01</v>
+      </c>
+      <c r="B163">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>6.86</v>
+      </c>
+      <c r="B164">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>5.68</v>
+      </c>
+      <c r="B165">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>4.97</v>
+      </c>
+      <c r="B166">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>5.32</v>
+      </c>
+      <c r="B167">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>4.62</v>
+      </c>
+      <c r="B168">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>4.21</v>
+      </c>
+      <c r="B169">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>4.46</v>
+      </c>
+      <c r="B170">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2.74</v>
+      </c>
+      <c r="B171">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>5.56</v>
+      </c>
+      <c r="B172">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>3.01</v>
+      </c>
+      <c r="B173">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>6.68</v>
+      </c>
+      <c r="B174">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>4.5</v>
+      </c>
+      <c r="B175">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B176">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>5.99</v>
+      </c>
+      <c r="B177">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>6.29</v>
+      </c>
+      <c r="B178">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1.86</v>
+      </c>
+      <c r="B179">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>4.59</v>
+      </c>
+      <c r="B180">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>6.76</v>
+      </c>
+      <c r="B181">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1.6</v>
+      </c>
+      <c r="B182">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>5.77</v>
+      </c>
+      <c r="B183">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>0.49</v>
+      </c>
+      <c r="B184">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2.95</v>
+      </c>
+      <c r="B185">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>5.08</v>
+      </c>
+      <c r="B186">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1.69</v>
+      </c>
+      <c r="B187">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>3.03</v>
+      </c>
+      <c r="B188">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2.06</v>
+      </c>
+      <c r="B189">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B190">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>5.33</v>
+      </c>
+      <c r="B191">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>6.13</v>
+      </c>
+      <c r="B192">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>4.55</v>
+      </c>
+      <c r="B193">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>4.29</v>
+      </c>
+      <c r="B194">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1.77</v>
+      </c>
+      <c r="B195">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>4.42</v>
+      </c>
+      <c r="B196">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>3.48</v>
+      </c>
+      <c r="B197">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>6.72</v>
+      </c>
+      <c r="B198">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>7.28</v>
+      </c>
+      <c r="B199">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>7.93</v>
+      </c>
+      <c r="B200">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>6.71</v>
+      </c>
+      <c r="B201">
+        <v>82.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDA14D4-D898-413A-833E-401F4CEDB5C9}">
+  <dimension ref="A1:B201"/>
+  <sheetViews>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4.26</v>
+      </c>
+      <c r="B2">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="B3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7.2</v>
+      </c>
+      <c r="B4">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6.31</v>
+      </c>
+      <c r="B5">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.28</v>
+      </c>
+      <c r="B6">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.77</v>
+      </c>
+      <c r="B7">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.95</v>
+      </c>
+      <c r="B8">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.52</v>
+      </c>
+      <c r="B9">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5.56</v>
+      </c>
+      <c r="B10">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4.8</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6.82</v>
+      </c>
+      <c r="B12">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5.63</v>
+      </c>
+      <c r="B13">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6.57</v>
+      </c>
+      <c r="B14">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4.07</v>
+      </c>
+      <c r="B15">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3.11</v>
+      </c>
+      <c r="B16">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4.18</v>
+      </c>
+      <c r="B17">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4.97</v>
+      </c>
+      <c r="B18">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5.76</v>
+      </c>
+      <c r="B19">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9.52</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4.92</v>
+      </c>
+      <c r="B21">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.09</v>
+      </c>
+      <c r="B22">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B23">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4.07</v>
+      </c>
+      <c r="B24">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5.96</v>
+      </c>
+      <c r="B25">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1.92</v>
+      </c>
+      <c r="B26">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5.13</v>
+      </c>
+      <c r="B27">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5.31</v>
+      </c>
+      <c r="B28">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5.46</v>
+      </c>
+      <c r="B29">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3.81</v>
+      </c>
+      <c r="B30">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="B31">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2.15</v>
+      </c>
+      <c r="B32">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4.01</v>
+      </c>
+      <c r="B33">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3.91</v>
+      </c>
+      <c r="B34">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5.83</v>
+      </c>
+      <c r="B35">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2.69</v>
+      </c>
+      <c r="B36">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6.56</v>
+      </c>
+      <c r="B37">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7.99</v>
+      </c>
+      <c r="B38">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.86</v>
+      </c>
+      <c r="B39">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5.85</v>
+      </c>
+      <c r="B40">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6.35</v>
+      </c>
+      <c r="B41">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3.73</v>
+      </c>
+      <c r="B42">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4.21</v>
+      </c>
+      <c r="B43">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="B44">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4.38</v>
+      </c>
+      <c r="B46">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1.65</v>
+      </c>
+      <c r="B47">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7.3</v>
+      </c>
+      <c r="B48">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>7.16</v>
+      </c>
+      <c r="B49">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3.37</v>
+      </c>
+      <c r="B50">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B51">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6.04</v>
+      </c>
+      <c r="B52">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3.85</v>
+      </c>
+      <c r="B53">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5.28</v>
+      </c>
+      <c r="B54">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="B55">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6.38</v>
+      </c>
+      <c r="B56">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>6.39</v>
+      </c>
+      <c r="B57">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3.55</v>
+      </c>
+      <c r="B58">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2.23</v>
+      </c>
+      <c r="B59">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1.83</v>
+      </c>
+      <c r="B60">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6.22</v>
+      </c>
+      <c r="B61">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2.62</v>
+      </c>
+      <c r="B62">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3.99</v>
+      </c>
+      <c r="B63">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3.81</v>
+      </c>
+      <c r="B64">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="B65">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B66">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5.38</v>
+      </c>
+      <c r="B67">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6.05</v>
+      </c>
+      <c r="B68">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>5.18</v>
+      </c>
+      <c r="B69">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4.38</v>
+      </c>
+      <c r="B70">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5.19</v>
+      </c>
+      <c r="B71">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5.8</v>
+      </c>
+      <c r="B72">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8.91</v>
+      </c>
+      <c r="B74">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>5.78</v>
+      </c>
+      <c r="B75">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3.7</v>
+      </c>
+      <c r="B76">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4.22</v>
+      </c>
+      <c r="B77">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5.99</v>
+      </c>
+      <c r="B78">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="B79">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.94</v>
+      </c>
+      <c r="B80">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="B81">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4.78</v>
+      </c>
+      <c r="B82">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>7.04</v>
+      </c>
+      <c r="B83">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>3.62</v>
+      </c>
+      <c r="B84">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>8.07</v>
+      </c>
+      <c r="B85">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5.57</v>
+      </c>
+      <c r="B86">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>6.22</v>
+      </c>
+      <c r="B87">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2.91</v>
+      </c>
+      <c r="B88">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>7.42</v>
+      </c>
+      <c r="B89">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>6.38</v>
+      </c>
+      <c r="B90">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>7.6</v>
+      </c>
+      <c r="B91">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3.74</v>
+      </c>
+      <c r="B92">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4.04</v>
+      </c>
+      <c r="B93">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>9.61</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2.88</v>
+      </c>
+      <c r="B95">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="B96">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7.27</v>
+      </c>
+      <c r="B97">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5.2</v>
+      </c>
+      <c r="B98">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>6.17</v>
+      </c>
+      <c r="B99">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>4.2</v>
+      </c>
+      <c r="B100">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>5.74</v>
+      </c>
+      <c r="B101">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2.39</v>
+      </c>
+      <c r="B102">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>8.32</v>
+      </c>
+      <c r="B103">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>4.76</v>
+      </c>
+      <c r="B104">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>3.64</v>
+      </c>
+      <c r="B105">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>6.33</v>
+      </c>
+      <c r="B106">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>4.08</v>
+      </c>
+      <c r="B107">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2.33</v>
+      </c>
+      <c r="B108">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2.31</v>
+      </c>
+      <c r="B109">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>6.39</v>
+      </c>
+      <c r="B110">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>4.68</v>
+      </c>
+      <c r="B111">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="B112">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>7.16</v>
+      </c>
+      <c r="B113">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2.75</v>
+      </c>
+      <c r="B114">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3.54</v>
+      </c>
+      <c r="B115">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="B116">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>5.19</v>
+      </c>
+      <c r="B117">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>4.92</v>
+      </c>
+      <c r="B118">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>4.43</v>
+      </c>
+      <c r="B119">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>4.88</v>
+      </c>
+      <c r="B120">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>4.79</v>
+      </c>
+      <c r="B121">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>3.56</v>
+      </c>
+      <c r="B122">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>3.37</v>
+      </c>
+      <c r="B123">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>5.55</v>
+      </c>
+      <c r="B124">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>3.22</v>
+      </c>
+      <c r="B125">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2.69</v>
+      </c>
+      <c r="B126">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>4.38</v>
+      </c>
+      <c r="B127">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>4.68</v>
+      </c>
+      <c r="B128">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>9.51</v>
+      </c>
+      <c r="B129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>3.59</v>
+      </c>
+      <c r="B130">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>6.89</v>
+      </c>
+      <c r="B131">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>6.49</v>
+      </c>
+      <c r="B132">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2.62</v>
+      </c>
+      <c r="B133">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>6.55</v>
+      </c>
+      <c r="B134">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2.63</v>
+      </c>
+      <c r="B135">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>6.21</v>
+      </c>
+      <c r="B137">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1.49</v>
+      </c>
+      <c r="B138">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>5.9</v>
+      </c>
+      <c r="B139">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>3.63</v>
+      </c>
+      <c r="B140">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>8.32</v>
+      </c>
+      <c r="B141">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>7.14</v>
+      </c>
+      <c r="B142">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>4.09</v>
+      </c>
+      <c r="B143">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>3.62</v>
+      </c>
+      <c r="B144">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2.57</v>
+      </c>
+      <c r="B145">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>4.12</v>
+      </c>
+      <c r="B146">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="B147">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B148">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>5.31</v>
+      </c>
+      <c r="B149">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>6.16</v>
+      </c>
+      <c r="B150">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>5.7</v>
+      </c>
+      <c r="B151">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>3.47</v>
+      </c>
+      <c r="B152">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2.12</v>
+      </c>
+      <c r="B153">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>7.73</v>
+      </c>
+      <c r="B154">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>3.62</v>
+      </c>
+      <c r="B155">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>3.7</v>
+      </c>
+      <c r="B156">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3.96</v>
+      </c>
+      <c r="B157">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1.31</v>
+      </c>
+      <c r="B158">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>4.04</v>
+      </c>
+      <c r="B159">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>4.04</v>
+      </c>
+      <c r="B160">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>6.24</v>
+      </c>
+      <c r="B161">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6.4</v>
+      </c>
+      <c r="B162">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>5.01</v>
+      </c>
+      <c r="B163">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>6.86</v>
+      </c>
+      <c r="B164">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>5.68</v>
+      </c>
+      <c r="B165">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>4.97</v>
+      </c>
+      <c r="B166">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>5.32</v>
+      </c>
+      <c r="B167">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>4.62</v>
+      </c>
+      <c r="B168">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>4.21</v>
+      </c>
+      <c r="B169">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>4.46</v>
+      </c>
+      <c r="B170">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2.74</v>
+      </c>
+      <c r="B171">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>5.56</v>
+      </c>
+      <c r="B172">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>3.01</v>
+      </c>
+      <c r="B173">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>6.68</v>
+      </c>
+      <c r="B174">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>4.5</v>
+      </c>
+      <c r="B175">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B176">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>5.99</v>
+      </c>
+      <c r="B177">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>6.29</v>
+      </c>
+      <c r="B178">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1.86</v>
+      </c>
+      <c r="B179">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>4.59</v>
+      </c>
+      <c r="B180">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>6.76</v>
+      </c>
+      <c r="B181">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1.6</v>
+      </c>
+      <c r="B182">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>5.77</v>
+      </c>
+      <c r="B183">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>0.49</v>
+      </c>
+      <c r="B184">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2.95</v>
+      </c>
+      <c r="B185">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>5.08</v>
+      </c>
+      <c r="B186">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1.69</v>
+      </c>
+      <c r="B187">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>3.03</v>
+      </c>
+      <c r="B188">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2.06</v>
+      </c>
+      <c r="B189">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B190">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>5.33</v>
+      </c>
+      <c r="B191">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>6.13</v>
+      </c>
+      <c r="B192">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>4.55</v>
+      </c>
+      <c r="B193">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>4.29</v>
+      </c>
+      <c r="B194">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1.77</v>
+      </c>
+      <c r="B195">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>4.42</v>
+      </c>
+      <c r="B196">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>3.48</v>
+      </c>
+      <c r="B197">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>6.72</v>
+      </c>
+      <c r="B198">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>7.28</v>
+      </c>
+      <c r="B199">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>7.93</v>
+      </c>
+      <c r="B200">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>6.71</v>
+      </c>
+      <c r="B201">
+        <v>82.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>